--- a/Data/Logs/Pathways.xlsx
+++ b/Data/Logs/Pathways.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1307">
   <si>
     <t>2011</t>
   </si>
@@ -508,9 +508,18 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/ADBE/2011.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AMD/2011.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AKAM/2011.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AMZN/2011.txt</t>
+  </si>
+  <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AAPL/2011.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/ADSK/2011.txt</t>
   </si>
   <si>
@@ -526,9 +535,15 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CHTR/2011.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/DLR/2011.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/DISH/2011.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/FLT/2011.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/HPQ/2011.txt</t>
   </si>
   <si>
@@ -538,6 +553,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/INTU/2011.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/LRCX/2011.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/MU/2011.txt</t>
   </si>
   <si>
@@ -556,15 +574,24 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/SBAC/2011.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/SSNC/2011.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/TTWO/2011.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/TXN/2011.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/TMUS/2011.txt</t>
   </si>
   <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/VIAC/2011.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/ZNGA/2011.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/EMR/2011.txt</t>
   </si>
   <si>
@@ -574,6 +601,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/SBGI/2011.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/IHRT/2011.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/EBAY/2011.txt</t>
   </si>
   <si>
@@ -589,6 +619,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CMCSA/2011.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/KMX/2011.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/ODP/2011.txt</t>
   </si>
   <si>
@@ -610,6 +643,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CCOI/2011.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CNSL/2011.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CALX/2011.txt</t>
   </si>
   <si>
@@ -673,12 +709,21 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/ADBE/2012.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AMD/2012.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AKAM/2012.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AMZN/2012.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AMCX/2012.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AAPL/2012.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AMAT/2012.txt</t>
   </si>
   <si>
@@ -697,6 +742,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CHTR/2012.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/DLR/2012.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/DISH/2012.txt</t>
   </si>
   <si>
@@ -706,12 +754,21 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/FB/2012.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/FLT/2012.txt</t>
+  </si>
+  <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/HPQ/2012.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/IBM/2012.txt</t>
   </si>
   <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/INTU/2012.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/LRCX/2012.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/MU/2012.txt</t>
   </si>
   <si>
@@ -739,12 +796,18 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/NOW/2012.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/SSNC/2012.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/STMP/2012.txt</t>
   </si>
   <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/TTWO/2012.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/TXN/2012.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/TMUS/2012.txt</t>
   </si>
   <si>
@@ -757,6 +820,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/VIAC/2012.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/ZNGA/2012.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/EMR/2012.txt</t>
   </si>
   <si>
@@ -769,6 +835,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/SBGI/2012.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/IHRT/2012.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/IRBT/2012.txt</t>
   </si>
   <si>
@@ -793,6 +862,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CMCSA/2012.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/KMX/2012.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/ODP/2012.txt</t>
   </si>
   <si>
@@ -814,6 +886,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CCOI/2012.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CNSL/2012.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CALX/2012.txt</t>
   </si>
   <si>
@@ -886,6 +961,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/ADBE/2013.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AMD/2013.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AKAM/2013.txt</t>
   </si>
   <si>
@@ -898,6 +976,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AMCX/2013.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AAPL/2013.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AMAT/2013.txt</t>
   </si>
   <si>
@@ -916,6 +997,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CHTR/2013.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/DLR/2013.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/DISH/2013.txt</t>
   </si>
   <si>
@@ -925,9 +1009,15 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/FB/2013.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/FLT/2013.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/GME/2013.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/HPQ/2013.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/IBM/2013.txt</t>
   </si>
   <si>
@@ -937,6 +1027,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/INTU/2013.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/LRCX/2013.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/LYV/2013.txt</t>
   </si>
   <si>
@@ -967,12 +1060,18 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/NOW/2013.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/SSNC/2013.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/STMP/2013.txt</t>
   </si>
   <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/TTWO/2013.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/TXN/2013.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/TMUS/2013.txt</t>
   </si>
   <si>
@@ -991,6 +1090,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/KN/2013.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/ZNGA/2013.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/EMR/2013.txt</t>
   </si>
   <si>
@@ -1000,6 +1102,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/SBGI/2013.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/IHRT/2013.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/IRBT/2013.txt</t>
   </si>
   <si>
@@ -1024,6 +1129,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CMCSA/2013.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/KMX/2013.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/ODP/2013.txt</t>
   </si>
   <si>
@@ -1045,6 +1153,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CCOI/2013.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CNSL/2013.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CALX/2013.txt</t>
   </si>
   <si>
@@ -1123,6 +1234,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/ADBE/2014.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AMD/2014.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AKAM/2014.txt</t>
   </si>
   <si>
@@ -1135,6 +1249,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AMCX/2014.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AAPL/2014.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AMAT/2014.txt</t>
   </si>
   <si>
@@ -1171,6 +1288,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/FIVN/2014.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/FLT/2014.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/GME/2014.txt</t>
   </si>
   <si>
@@ -1183,6 +1303,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/INTU/2014.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/LRCX/2014.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/LYV/2014.txt</t>
   </si>
   <si>
@@ -1228,6 +1351,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/NOW/2014.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/SSNC/2014.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/STMP/2014.txt</t>
   </si>
   <si>
@@ -1237,6 +1363,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/TTWO/2014.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/TXN/2014.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/TMUS/2014.txt</t>
   </si>
   <si>
@@ -1261,6 +1390,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/KN/2014.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/ZNGA/2014.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/EMR/2014.txt</t>
   </si>
   <si>
@@ -1276,6 +1408,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/SBGI/2014.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/IHRT/2014.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/IRBT/2014.txt</t>
   </si>
   <si>
@@ -1303,6 +1438,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/PRTS/2014.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/KMX/2014.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/ODP/2014.txt</t>
   </si>
   <si>
@@ -1324,6 +1462,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CCOI/2014.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CNSL/2014.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CALX/2014.txt</t>
   </si>
   <si>
@@ -1432,6 +1573,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/APPF/2015.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AAPL/2015.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/AMAT/2015.txt</t>
   </si>
   <si>
@@ -1474,12 +1618,18 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/FIVN/2015.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/FLT/2015.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/GME/2015.txt</t>
   </si>
   <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/GOOGL/2015.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/HPQ/2015.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/IBM/2015.txt</t>
   </si>
   <si>
@@ -1489,6 +1639,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/INTU/2015.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/LRCX/2015.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/LYV/2015.txt</t>
   </si>
   <si>
@@ -1582,6 +1735,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/KN/2015.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/ZNGA/2015.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/EMR/2015.txt</t>
   </si>
   <si>
@@ -1597,6 +1753,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/SBGI/2015.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/IHRT/2015.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/IRBT/2015.txt</t>
   </si>
   <si>
@@ -2195,6 +2354,9 @@
   </si>
   <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/GME/2017.txt</t>
+  </si>
+  <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/GOOGL/2017.txt</t>
   </si>
   <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/HPE/2017.txt</t>
@@ -4185,25 +4347,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="F2" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
       <c r="G2" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="H2" t="s">
-        <v>698</v>
+        <v>751</v>
       </c>
       <c r="I2" t="s">
-        <v>826</v>
+        <v>880</v>
       </c>
       <c r="J2" t="s">
-        <v>961</v>
+        <v>1015</v>
       </c>
       <c r="K2" t="s">
-        <v>1104</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4214,31 +4376,31 @@
         <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="E3" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="F3" t="s">
-        <v>464</v>
+        <v>511</v>
       </c>
       <c r="G3" t="s">
-        <v>576</v>
+        <v>629</v>
       </c>
       <c r="H3" t="s">
-        <v>699</v>
+        <v>752</v>
       </c>
       <c r="I3" t="s">
-        <v>827</v>
+        <v>881</v>
       </c>
       <c r="J3" t="s">
-        <v>962</v>
+        <v>1016</v>
       </c>
       <c r="K3" t="s">
-        <v>1105</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4249,66 +4411,66 @@
         <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="E4" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="F4" t="s">
-        <v>465</v>
+        <v>512</v>
       </c>
       <c r="G4" t="s">
-        <v>577</v>
+        <v>630</v>
       </c>
       <c r="H4" t="s">
-        <v>700</v>
+        <v>753</v>
       </c>
       <c r="I4" t="s">
-        <v>828</v>
+        <v>882</v>
       </c>
       <c r="J4" t="s">
-        <v>963</v>
+        <v>1017</v>
       </c>
       <c r="K4" t="s">
-        <v>1106</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" t="s">
+        <v>406</v>
       </c>
       <c r="F5" t="s">
-        <v>466</v>
+        <v>513</v>
       </c>
       <c r="G5" t="s">
-        <v>578</v>
+        <v>631</v>
       </c>
       <c r="H5" t="s">
-        <v>701</v>
+        <v>754</v>
       </c>
       <c r="I5" t="s">
-        <v>829</v>
+        <v>883</v>
       </c>
       <c r="J5" t="s">
-        <v>964</v>
+        <v>1018</v>
       </c>
       <c r="K5" t="s">
-        <v>1107</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4343,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>1108</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4351,34 +4513,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="F7" t="s">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="G7" t="s">
-        <v>579</v>
+        <v>632</v>
       </c>
       <c r="H7" t="s">
-        <v>702</v>
+        <v>755</v>
       </c>
       <c r="I7" t="s">
-        <v>830</v>
+        <v>884</v>
       </c>
       <c r="J7" t="s">
-        <v>965</v>
+        <v>1019</v>
       </c>
       <c r="K7" t="s">
-        <v>1109</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4404,51 +4566,51 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>703</v>
+        <v>756</v>
       </c>
       <c r="I8" t="s">
-        <v>831</v>
+        <v>885</v>
       </c>
       <c r="J8" t="s">
-        <v>966</v>
+        <v>1020</v>
       </c>
       <c r="K8" t="s">
-        <v>1110</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" t="s">
+        <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="E9" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="F9" t="s">
-        <v>468</v>
+        <v>515</v>
       </c>
       <c r="G9" t="s">
-        <v>580</v>
+        <v>633</v>
       </c>
       <c r="H9" t="s">
-        <v>704</v>
+        <v>757</v>
       </c>
       <c r="I9" t="s">
-        <v>832</v>
+        <v>886</v>
       </c>
       <c r="J9" t="s">
-        <v>967</v>
+        <v>1021</v>
       </c>
       <c r="K9" t="s">
-        <v>1111</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4462,28 +4624,28 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="E10" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="F10" t="s">
-        <v>469</v>
+        <v>516</v>
       </c>
       <c r="G10" t="s">
-        <v>581</v>
+        <v>634</v>
       </c>
       <c r="H10" t="s">
-        <v>705</v>
+        <v>758</v>
       </c>
       <c r="I10" t="s">
-        <v>833</v>
+        <v>887</v>
       </c>
       <c r="J10" t="s">
-        <v>968</v>
+        <v>1022</v>
       </c>
       <c r="K10" t="s">
-        <v>1112</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4494,31 +4656,31 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D11" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="E11" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="F11" t="s">
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="G11" t="s">
-        <v>582</v>
+        <v>635</v>
       </c>
       <c r="H11" t="s">
-        <v>706</v>
+        <v>759</v>
       </c>
       <c r="I11" t="s">
-        <v>834</v>
+        <v>888</v>
       </c>
       <c r="J11" t="s">
-        <v>969</v>
+        <v>1023</v>
       </c>
       <c r="K11" t="s">
-        <v>1113</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4544,16 +4706,16 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>707</v>
+        <v>760</v>
       </c>
       <c r="I12" t="s">
-        <v>835</v>
+        <v>889</v>
       </c>
       <c r="J12" t="s">
-        <v>970</v>
+        <v>1024</v>
       </c>
       <c r="K12" t="s">
-        <v>1114</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4573,57 +4735,57 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>471</v>
+        <v>518</v>
       </c>
       <c r="G13" t="s">
-        <v>583</v>
+        <v>636</v>
       </c>
       <c r="H13" t="s">
-        <v>708</v>
+        <v>761</v>
       </c>
       <c r="I13" t="s">
-        <v>836</v>
+        <v>890</v>
       </c>
       <c r="J13" t="s">
-        <v>971</v>
+        <v>1025</v>
       </c>
       <c r="K13" t="s">
-        <v>1115</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" t="s">
+        <v>411</v>
+      </c>
+      <c r="F14" t="s">
+        <v>519</v>
       </c>
       <c r="G14" t="s">
-        <v>584</v>
+        <v>637</v>
       </c>
       <c r="H14" t="s">
-        <v>709</v>
+        <v>762</v>
       </c>
       <c r="I14" t="s">
-        <v>837</v>
+        <v>891</v>
       </c>
       <c r="J14" t="s">
-        <v>972</v>
+        <v>1026</v>
       </c>
       <c r="K14" t="s">
-        <v>1116</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4634,31 +4796,31 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="E15" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="F15" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="G15" t="s">
-        <v>585</v>
+        <v>638</v>
       </c>
       <c r="H15" t="s">
-        <v>710</v>
+        <v>763</v>
       </c>
       <c r="I15" t="s">
-        <v>838</v>
+        <v>892</v>
       </c>
       <c r="J15" t="s">
-        <v>973</v>
+        <v>1027</v>
       </c>
       <c r="K15" t="s">
-        <v>1117</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4666,34 +4828,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="E16" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="F16" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="G16" t="s">
-        <v>586</v>
+        <v>639</v>
       </c>
       <c r="H16" t="s">
-        <v>711</v>
+        <v>764</v>
       </c>
       <c r="I16" t="s">
-        <v>839</v>
+        <v>893</v>
       </c>
       <c r="J16" t="s">
-        <v>974</v>
+        <v>1028</v>
       </c>
       <c r="K16" t="s">
-        <v>1118</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4701,34 +4863,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D17" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="E17" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="F17" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="G17" t="s">
-        <v>587</v>
+        <v>640</v>
       </c>
       <c r="H17" t="s">
-        <v>712</v>
+        <v>765</v>
       </c>
       <c r="I17" t="s">
-        <v>840</v>
+        <v>894</v>
       </c>
       <c r="J17" t="s">
-        <v>975</v>
+        <v>1029</v>
       </c>
       <c r="K17" t="s">
-        <v>1119</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4748,22 +4910,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="G18" t="s">
-        <v>588</v>
+        <v>641</v>
       </c>
       <c r="H18" t="s">
-        <v>713</v>
+        <v>766</v>
       </c>
       <c r="I18" t="s">
-        <v>841</v>
+        <v>895</v>
       </c>
       <c r="J18" t="s">
-        <v>976</v>
+        <v>1030</v>
       </c>
       <c r="K18" t="s">
-        <v>1120</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4771,34 +4933,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="E19" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="F19" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="G19" t="s">
-        <v>589</v>
+        <v>642</v>
       </c>
       <c r="H19" t="s">
-        <v>714</v>
+        <v>767</v>
       </c>
       <c r="I19" t="s">
-        <v>842</v>
+        <v>896</v>
       </c>
       <c r="J19" t="s">
-        <v>977</v>
+        <v>1031</v>
       </c>
       <c r="K19" t="s">
-        <v>1121</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4806,34 +4968,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D20" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="E20" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="F20" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="G20" t="s">
-        <v>590</v>
+        <v>643</v>
       </c>
       <c r="H20" t="s">
-        <v>715</v>
+        <v>768</v>
       </c>
       <c r="I20" t="s">
-        <v>843</v>
+        <v>897</v>
       </c>
       <c r="J20" t="s">
-        <v>978</v>
+        <v>1032</v>
       </c>
       <c r="K20" t="s">
-        <v>1122</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4841,69 +5003,69 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D21" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="E21" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="F21" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="G21" t="s">
-        <v>591</v>
+        <v>644</v>
       </c>
       <c r="H21" t="s">
-        <v>716</v>
+        <v>769</v>
       </c>
       <c r="I21" t="s">
-        <v>844</v>
+        <v>898</v>
       </c>
       <c r="J21" t="s">
-        <v>979</v>
+        <v>1033</v>
       </c>
       <c r="K21" t="s">
-        <v>1123</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" t="s">
+        <v>327</v>
       </c>
       <c r="E22" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="F22" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
       <c r="G22" t="s">
-        <v>592</v>
+        <v>645</v>
       </c>
       <c r="H22" t="s">
-        <v>717</v>
+        <v>770</v>
       </c>
       <c r="I22" t="s">
-        <v>845</v>
+        <v>899</v>
       </c>
       <c r="J22" t="s">
-        <v>980</v>
+        <v>1034</v>
       </c>
       <c r="K22" t="s">
-        <v>1124</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4911,34 +5073,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D23" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="E23" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="F23" t="s">
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="G23" t="s">
-        <v>593</v>
+        <v>646</v>
       </c>
       <c r="H23" t="s">
-        <v>718</v>
+        <v>771</v>
       </c>
       <c r="I23" t="s">
-        <v>846</v>
+        <v>900</v>
       </c>
       <c r="J23" t="s">
-        <v>981</v>
+        <v>1035</v>
       </c>
       <c r="K23" t="s">
-        <v>1125</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4949,31 +5111,31 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="D24" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="E24" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="F24" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="G24" t="s">
-        <v>594</v>
+        <v>647</v>
       </c>
       <c r="H24" t="s">
-        <v>719</v>
+        <v>772</v>
       </c>
       <c r="I24" t="s">
-        <v>847</v>
+        <v>901</v>
       </c>
       <c r="J24" t="s">
-        <v>982</v>
+        <v>1036</v>
       </c>
       <c r="K24" t="s">
-        <v>1126</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4990,25 +5152,25 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="F25" t="s">
-        <v>482</v>
+        <v>530</v>
       </c>
       <c r="G25" t="s">
-        <v>595</v>
+        <v>648</v>
       </c>
       <c r="H25" t="s">
-        <v>720</v>
+        <v>773</v>
       </c>
       <c r="I25" t="s">
-        <v>848</v>
+        <v>902</v>
       </c>
       <c r="J25" t="s">
-        <v>983</v>
+        <v>1037</v>
       </c>
       <c r="K25" t="s">
-        <v>1127</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -5028,22 +5190,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
       <c r="G26" t="s">
-        <v>596</v>
+        <v>649</v>
       </c>
       <c r="H26" t="s">
-        <v>721</v>
+        <v>774</v>
       </c>
       <c r="I26" t="s">
-        <v>849</v>
+        <v>903</v>
       </c>
       <c r="J26" t="s">
-        <v>984</v>
+        <v>1038</v>
       </c>
       <c r="K26" t="s">
-        <v>1128</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -5066,19 +5228,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>597</v>
+        <v>650</v>
       </c>
       <c r="H27" t="s">
-        <v>722</v>
+        <v>775</v>
       </c>
       <c r="I27" t="s">
-        <v>850</v>
+        <v>904</v>
       </c>
       <c r="J27" t="s">
-        <v>985</v>
+        <v>1039</v>
       </c>
       <c r="K27" t="s">
-        <v>1129</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -5089,31 +5251,31 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="E28" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="F28" t="s">
-        <v>484</v>
+        <v>532</v>
       </c>
       <c r="G28" t="s">
-        <v>598</v>
+        <v>651</v>
       </c>
       <c r="H28" t="s">
-        <v>723</v>
+        <v>776</v>
       </c>
       <c r="I28" t="s">
-        <v>851</v>
+        <v>905</v>
       </c>
       <c r="J28" t="s">
-        <v>986</v>
+        <v>1040</v>
       </c>
       <c r="K28" t="s">
-        <v>1130</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -5145,10 +5307,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>987</v>
+        <v>1041</v>
       </c>
       <c r="K29" t="s">
-        <v>1131</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -5165,60 +5327,60 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="F30" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
       <c r="G30" t="s">
-        <v>599</v>
+        <v>652</v>
       </c>
       <c r="H30" t="s">
-        <v>724</v>
+        <v>777</v>
       </c>
       <c r="I30" t="s">
-        <v>852</v>
+        <v>906</v>
       </c>
       <c r="J30" t="s">
-        <v>988</v>
+        <v>1042</v>
       </c>
       <c r="K30" t="s">
-        <v>1132</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B31" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" t="s">
+        <v>331</v>
+      </c>
+      <c r="E31" t="s">
+        <v>424</v>
+      </c>
+      <c r="F31" t="s">
+        <v>534</v>
       </c>
       <c r="G31" t="s">
-        <v>600</v>
+        <v>653</v>
       </c>
       <c r="H31" t="s">
-        <v>725</v>
+        <v>778</v>
       </c>
       <c r="I31" t="s">
-        <v>853</v>
+        <v>907</v>
       </c>
       <c r="J31" t="s">
-        <v>989</v>
+        <v>1043</v>
       </c>
       <c r="K31" t="s">
-        <v>1133</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5250,10 +5412,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>990</v>
+        <v>1044</v>
       </c>
       <c r="K32" t="s">
-        <v>1134</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5267,28 +5429,28 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="E33" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="F33" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="G33" t="s">
-        <v>601</v>
+        <v>654</v>
       </c>
       <c r="H33" t="s">
-        <v>726</v>
+        <v>779</v>
       </c>
       <c r="I33" t="s">
-        <v>854</v>
+        <v>908</v>
       </c>
       <c r="J33" t="s">
-        <v>991</v>
+        <v>1045</v>
       </c>
       <c r="K33" t="s">
-        <v>1135</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -5308,22 +5470,22 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="G34" t="s">
-        <v>602</v>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
+        <v>655</v>
+      </c>
+      <c r="H34" t="s">
+        <v>780</v>
       </c>
       <c r="I34" t="s">
-        <v>855</v>
+        <v>909</v>
       </c>
       <c r="J34" t="s">
-        <v>992</v>
+        <v>1046</v>
       </c>
       <c r="K34" t="s">
-        <v>1136</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -5346,19 +5508,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>603</v>
+        <v>656</v>
       </c>
       <c r="H35" t="s">
-        <v>727</v>
+        <v>781</v>
       </c>
       <c r="I35" t="s">
-        <v>856</v>
+        <v>910</v>
       </c>
       <c r="J35" t="s">
-        <v>993</v>
+        <v>1047</v>
       </c>
       <c r="K35" t="s">
-        <v>1137</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -5366,34 +5528,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="C36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D36" t="s">
+        <v>333</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
-      <c r="F36" t="b">
-        <v>0</v>
+      <c r="F36" t="s">
+        <v>537</v>
       </c>
       <c r="G36" t="s">
-        <v>604</v>
+        <v>657</v>
       </c>
       <c r="H36" t="s">
-        <v>728</v>
+        <v>782</v>
       </c>
       <c r="I36" t="s">
-        <v>857</v>
+        <v>911</v>
       </c>
       <c r="J36" t="s">
-        <v>994</v>
+        <v>1048</v>
       </c>
       <c r="K36" t="s">
-        <v>1138</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -5401,34 +5563,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D37" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="E37" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="F37" t="s">
-        <v>488</v>
+        <v>538</v>
       </c>
       <c r="G37" t="s">
-        <v>605</v>
+        <v>658</v>
       </c>
       <c r="H37" t="s">
-        <v>729</v>
+        <v>783</v>
       </c>
       <c r="I37" t="s">
-        <v>858</v>
+        <v>912</v>
       </c>
       <c r="J37" t="s">
-        <v>995</v>
+        <v>1049</v>
       </c>
       <c r="K37" t="s">
-        <v>1139</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -5442,16 +5604,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="E38" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="F38" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
       <c r="G38" t="s">
-        <v>606</v>
+        <v>659</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -5463,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>1140</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -5471,69 +5633,69 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="D39" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="E39" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="F39" t="s">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="G39" t="s">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c r="H39" t="s">
-        <v>730</v>
+        <v>784</v>
       </c>
       <c r="I39" t="s">
-        <v>859</v>
+        <v>913</v>
       </c>
       <c r="J39" t="s">
-        <v>996</v>
+        <v>1050</v>
       </c>
       <c r="K39" t="s">
-        <v>1141</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B40" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" t="s">
+        <v>337</v>
+      </c>
+      <c r="E40" t="s">
+        <v>429</v>
+      </c>
+      <c r="F40" t="s">
+        <v>541</v>
       </c>
       <c r="G40" t="s">
-        <v>608</v>
+        <v>661</v>
       </c>
       <c r="H40" t="s">
-        <v>731</v>
+        <v>785</v>
       </c>
       <c r="I40" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="J40" t="s">
-        <v>997</v>
+        <v>1051</v>
       </c>
       <c r="K40" t="s">
-        <v>1142</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5547,28 +5709,28 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="E41" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="F41" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
       <c r="G41" t="s">
-        <v>609</v>
+        <v>662</v>
       </c>
       <c r="H41" t="s">
-        <v>732</v>
+        <v>786</v>
       </c>
       <c r="I41" t="s">
-        <v>861</v>
+        <v>915</v>
       </c>
       <c r="J41" t="s">
-        <v>998</v>
+        <v>1052</v>
       </c>
       <c r="K41" t="s">
-        <v>1143</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5576,34 +5738,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="E42" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="F42" t="s">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="G42" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="H42" t="s">
-        <v>733</v>
+        <v>787</v>
       </c>
       <c r="I42" t="s">
-        <v>862</v>
+        <v>916</v>
       </c>
       <c r="J42" t="s">
-        <v>999</v>
+        <v>1053</v>
       </c>
       <c r="K42" t="s">
-        <v>1144</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5626,19 +5788,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="H43" t="s">
-        <v>734</v>
+        <v>788</v>
       </c>
       <c r="I43" t="s">
-        <v>863</v>
+        <v>917</v>
       </c>
       <c r="J43" t="s">
-        <v>1000</v>
+        <v>1054</v>
       </c>
       <c r="K43" t="s">
-        <v>1145</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -5664,16 +5826,16 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>735</v>
+        <v>789</v>
       </c>
       <c r="I44" t="s">
-        <v>864</v>
+        <v>918</v>
       </c>
       <c r="J44" t="s">
-        <v>1001</v>
+        <v>1055</v>
       </c>
       <c r="K44" t="s">
-        <v>1146</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5684,31 +5846,31 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="D45" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="E45" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="F45" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
       <c r="G45" t="s">
-        <v>612</v>
+        <v>665</v>
       </c>
       <c r="H45" t="s">
-        <v>736</v>
+        <v>790</v>
       </c>
       <c r="I45" t="s">
-        <v>865</v>
+        <v>919</v>
       </c>
       <c r="J45" t="s">
-        <v>1002</v>
+        <v>1056</v>
       </c>
       <c r="K45" t="s">
-        <v>1147</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -5725,25 +5887,25 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="F46" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="G46" t="s">
-        <v>613</v>
+        <v>666</v>
       </c>
       <c r="H46" t="s">
-        <v>737</v>
+        <v>791</v>
       </c>
       <c r="I46" t="s">
-        <v>866</v>
+        <v>920</v>
       </c>
       <c r="J46" t="s">
-        <v>1003</v>
+        <v>1057</v>
       </c>
       <c r="K46" t="s">
-        <v>1148</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -5754,31 +5916,31 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="E47" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="F47" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="G47" t="s">
-        <v>614</v>
+        <v>667</v>
       </c>
       <c r="H47" t="s">
-        <v>738</v>
+        <v>792</v>
       </c>
       <c r="I47" t="s">
-        <v>867</v>
+        <v>921</v>
       </c>
       <c r="J47" t="s">
-        <v>1004</v>
+        <v>1058</v>
       </c>
       <c r="K47" t="s">
-        <v>1149</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5786,34 +5948,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="D48" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="E48" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="F48" t="s">
-        <v>496</v>
+        <v>547</v>
       </c>
       <c r="G48" t="s">
-        <v>615</v>
+        <v>668</v>
       </c>
       <c r="H48" t="s">
-        <v>739</v>
+        <v>793</v>
       </c>
       <c r="I48" t="s">
-        <v>868</v>
+        <v>922</v>
       </c>
       <c r="J48" t="s">
-        <v>1005</v>
+        <v>1059</v>
       </c>
       <c r="K48" t="s">
-        <v>1150</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -5821,34 +5983,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="E49" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="F49" t="s">
-        <v>497</v>
+        <v>548</v>
       </c>
       <c r="G49" t="s">
-        <v>616</v>
+        <v>669</v>
       </c>
       <c r="H49" t="s">
-        <v>740</v>
+        <v>794</v>
       </c>
       <c r="I49" t="s">
-        <v>869</v>
+        <v>923</v>
       </c>
       <c r="J49" t="s">
-        <v>1006</v>
+        <v>1060</v>
       </c>
       <c r="K49" t="s">
-        <v>1151</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -5856,34 +6018,34 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="E50" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="F50" t="s">
-        <v>498</v>
+        <v>549</v>
       </c>
       <c r="G50" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="H50" t="s">
-        <v>741</v>
+        <v>795</v>
       </c>
       <c r="I50" t="s">
-        <v>870</v>
+        <v>924</v>
       </c>
       <c r="J50" t="s">
-        <v>1007</v>
+        <v>1061</v>
       </c>
       <c r="K50" t="s">
-        <v>1152</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5903,22 +6065,22 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>499</v>
+        <v>550</v>
       </c>
       <c r="G51" t="s">
-        <v>618</v>
+        <v>671</v>
       </c>
       <c r="H51" t="s">
-        <v>742</v>
+        <v>796</v>
       </c>
       <c r="I51" t="s">
-        <v>871</v>
+        <v>925</v>
       </c>
       <c r="J51" t="s">
-        <v>1008</v>
+        <v>1062</v>
       </c>
       <c r="K51" t="s">
-        <v>1153</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -5938,22 +6100,22 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>500</v>
+        <v>551</v>
       </c>
       <c r="G52" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="H52" t="s">
-        <v>743</v>
+        <v>797</v>
       </c>
       <c r="I52" t="s">
-        <v>872</v>
+        <v>926</v>
       </c>
       <c r="J52" t="s">
-        <v>1009</v>
+        <v>1063</v>
       </c>
       <c r="K52" t="s">
-        <v>1154</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5970,25 +6132,25 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="F53" t="s">
-        <v>501</v>
+        <v>552</v>
       </c>
       <c r="G53" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
       <c r="H53" t="s">
-        <v>744</v>
+        <v>798</v>
       </c>
       <c r="I53" t="s">
-        <v>873</v>
+        <v>927</v>
       </c>
       <c r="J53" t="s">
-        <v>1010</v>
+        <v>1064</v>
       </c>
       <c r="K53" t="s">
-        <v>1155</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5996,34 +6158,34 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="D54" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="E54" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="F54" t="s">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="G54" t="s">
-        <v>621</v>
+        <v>674</v>
       </c>
       <c r="H54" t="s">
-        <v>745</v>
+        <v>799</v>
       </c>
       <c r="I54" t="s">
-        <v>874</v>
+        <v>928</v>
       </c>
       <c r="J54" t="s">
-        <v>1011</v>
+        <v>1065</v>
       </c>
       <c r="K54" t="s">
-        <v>1156</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -6040,25 +6202,25 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="F55" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="G55" t="s">
-        <v>622</v>
+        <v>675</v>
       </c>
       <c r="H55" t="s">
-        <v>746</v>
+        <v>800</v>
       </c>
       <c r="I55" t="s">
-        <v>875</v>
+        <v>929</v>
       </c>
       <c r="J55" t="s">
-        <v>1012</v>
+        <v>1066</v>
       </c>
       <c r="K55" t="s">
-        <v>1157</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -6075,25 +6237,25 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="F56" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="G56" t="s">
-        <v>623</v>
+        <v>676</v>
       </c>
       <c r="H56" t="s">
-        <v>747</v>
+        <v>801</v>
       </c>
       <c r="I56" t="s">
-        <v>876</v>
+        <v>930</v>
       </c>
       <c r="J56" t="s">
-        <v>1013</v>
+        <v>1067</v>
       </c>
       <c r="K56" t="s">
-        <v>1158</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -6110,25 +6272,25 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="F57" t="s">
-        <v>505</v>
+        <v>556</v>
       </c>
       <c r="G57" t="s">
-        <v>624</v>
+        <v>677</v>
       </c>
       <c r="H57" t="s">
-        <v>748</v>
+        <v>802</v>
       </c>
       <c r="I57" t="s">
-        <v>877</v>
+        <v>931</v>
       </c>
       <c r="J57" t="s">
-        <v>1014</v>
+        <v>1068</v>
       </c>
       <c r="K57" t="s">
-        <v>1159</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -6136,34 +6298,34 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="D58" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="E58" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="F58" t="s">
-        <v>506</v>
+        <v>557</v>
       </c>
       <c r="G58" t="s">
-        <v>625</v>
+        <v>678</v>
       </c>
       <c r="H58" t="s">
-        <v>749</v>
+        <v>803</v>
       </c>
       <c r="I58" t="s">
-        <v>878</v>
+        <v>932</v>
       </c>
       <c r="J58" t="s">
-        <v>1015</v>
+        <v>1069</v>
       </c>
       <c r="K58" t="s">
-        <v>1160</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -6174,31 +6336,31 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D59" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="E59" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="F59" t="s">
-        <v>507</v>
+        <v>558</v>
       </c>
       <c r="G59" t="s">
-        <v>626</v>
+        <v>679</v>
       </c>
       <c r="H59" t="s">
-        <v>750</v>
+        <v>804</v>
       </c>
       <c r="I59" t="s">
-        <v>879</v>
+        <v>933</v>
       </c>
       <c r="J59" t="s">
-        <v>1016</v>
+        <v>1070</v>
       </c>
       <c r="K59" t="s">
-        <v>1161</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -6218,57 +6380,57 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>508</v>
+        <v>559</v>
       </c>
       <c r="G60" t="s">
-        <v>627</v>
+        <v>680</v>
       </c>
       <c r="H60" t="s">
-        <v>751</v>
+        <v>805</v>
       </c>
       <c r="I60" t="s">
-        <v>880</v>
+        <v>934</v>
       </c>
       <c r="J60" t="s">
-        <v>1017</v>
+        <v>1071</v>
       </c>
       <c r="K60" t="s">
-        <v>1162</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B61" t="b">
-        <v>0</v>
-      </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" t="b">
-        <v>0</v>
+      <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" t="s">
+        <v>260</v>
+      </c>
+      <c r="D61" t="s">
+        <v>348</v>
+      </c>
+      <c r="E61" t="s">
+        <v>445</v>
       </c>
       <c r="F61" t="s">
-        <v>509</v>
+        <v>560</v>
       </c>
       <c r="G61" t="s">
-        <v>628</v>
+        <v>681</v>
       </c>
       <c r="H61" t="s">
-        <v>752</v>
+        <v>806</v>
       </c>
       <c r="I61" t="s">
-        <v>881</v>
+        <v>935</v>
       </c>
       <c r="J61" t="s">
-        <v>1018</v>
+        <v>1072</v>
       </c>
       <c r="K61" t="s">
-        <v>1163</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -6279,31 +6441,31 @@
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="D62" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="E62" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="F62" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="G62" t="s">
-        <v>629</v>
+        <v>682</v>
       </c>
       <c r="H62" t="s">
-        <v>753</v>
+        <v>807</v>
       </c>
       <c r="I62" t="s">
-        <v>882</v>
+        <v>936</v>
       </c>
       <c r="J62" t="s">
-        <v>1019</v>
+        <v>1073</v>
       </c>
       <c r="K62" t="s">
-        <v>1164</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -6320,25 +6482,25 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="F63" t="s">
-        <v>511</v>
+        <v>562</v>
       </c>
       <c r="G63" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="H63" t="s">
-        <v>754</v>
+        <v>808</v>
       </c>
       <c r="I63" t="s">
-        <v>883</v>
+        <v>937</v>
       </c>
       <c r="J63" t="s">
-        <v>1020</v>
+        <v>1074</v>
       </c>
       <c r="K63" t="s">
-        <v>1165</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -6346,69 +6508,69 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="D64" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="E64" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="F64" t="s">
-        <v>512</v>
+        <v>563</v>
       </c>
       <c r="G64" t="s">
-        <v>631</v>
+        <v>684</v>
       </c>
       <c r="H64" t="s">
-        <v>755</v>
+        <v>809</v>
       </c>
       <c r="I64" t="s">
-        <v>884</v>
+        <v>938</v>
       </c>
       <c r="J64" t="s">
-        <v>1021</v>
+        <v>1075</v>
       </c>
       <c r="K64" t="s">
-        <v>1166</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B65" t="b">
-        <v>0</v>
-      </c>
-      <c r="C65" t="b">
-        <v>0</v>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" t="b">
-        <v>0</v>
+      <c r="B65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" t="s">
+        <v>263</v>
+      </c>
+      <c r="D65" t="s">
+        <v>351</v>
+      </c>
+      <c r="E65" t="s">
+        <v>449</v>
       </c>
       <c r="F65" t="s">
-        <v>513</v>
+        <v>564</v>
       </c>
       <c r="G65" t="s">
-        <v>632</v>
+        <v>685</v>
       </c>
       <c r="H65" t="s">
-        <v>756</v>
+        <v>810</v>
       </c>
       <c r="I65" t="s">
-        <v>885</v>
+        <v>939</v>
       </c>
       <c r="J65" t="s">
-        <v>1022</v>
+        <v>1076</v>
       </c>
       <c r="K65" t="s">
-        <v>1167</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -6416,34 +6578,34 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C66" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="D66" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="E66" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="F66" t="s">
-        <v>514</v>
+        <v>565</v>
       </c>
       <c r="G66" t="s">
-        <v>633</v>
+        <v>686</v>
       </c>
       <c r="H66" t="s">
-        <v>757</v>
+        <v>811</v>
       </c>
       <c r="I66" t="s">
-        <v>886</v>
+        <v>940</v>
       </c>
       <c r="J66" t="s">
-        <v>1023</v>
+        <v>1077</v>
       </c>
       <c r="K66" t="s">
-        <v>1168</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -6466,19 +6628,19 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="H67" t="s">
-        <v>758</v>
+        <v>812</v>
       </c>
       <c r="I67" t="s">
-        <v>887</v>
+        <v>941</v>
       </c>
       <c r="J67" t="s">
-        <v>1024</v>
+        <v>1078</v>
       </c>
       <c r="K67" t="s">
-        <v>1169</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -6492,28 +6654,28 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="E68" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="F68" t="s">
-        <v>515</v>
+        <v>566</v>
       </c>
       <c r="G68" t="s">
-        <v>635</v>
+        <v>688</v>
       </c>
       <c r="H68" t="s">
-        <v>759</v>
+        <v>813</v>
       </c>
       <c r="I68" t="s">
-        <v>888</v>
+        <v>942</v>
       </c>
       <c r="J68" t="s">
-        <v>1025</v>
+        <v>1079</v>
       </c>
       <c r="K68" t="s">
-        <v>1170</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -6530,25 +6692,25 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="F69" t="s">
-        <v>516</v>
+        <v>567</v>
       </c>
       <c r="G69" t="s">
-        <v>636</v>
+        <v>689</v>
       </c>
       <c r="H69" t="s">
-        <v>760</v>
+        <v>814</v>
       </c>
       <c r="I69" t="s">
-        <v>889</v>
+        <v>943</v>
       </c>
       <c r="J69" t="s">
-        <v>1026</v>
+        <v>1080</v>
       </c>
       <c r="K69" t="s">
-        <v>1171</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -6559,31 +6721,31 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="D70" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="E70" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="F70" t="s">
-        <v>517</v>
+        <v>568</v>
       </c>
       <c r="G70" t="s">
-        <v>637</v>
+        <v>690</v>
       </c>
       <c r="H70" t="s">
-        <v>761</v>
+        <v>815</v>
       </c>
       <c r="I70" t="s">
-        <v>890</v>
+        <v>944</v>
       </c>
       <c r="J70" t="s">
-        <v>1027</v>
+        <v>1081</v>
       </c>
       <c r="K70" t="s">
-        <v>1172</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -6594,31 +6756,31 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="D71" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="E71" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="F71" t="s">
-        <v>518</v>
+        <v>569</v>
       </c>
       <c r="G71" t="s">
-        <v>638</v>
+        <v>691</v>
       </c>
       <c r="H71" t="s">
-        <v>762</v>
+        <v>816</v>
       </c>
       <c r="I71" t="s">
-        <v>891</v>
+        <v>945</v>
       </c>
       <c r="J71" t="s">
-        <v>1028</v>
+        <v>1082</v>
       </c>
       <c r="K71" t="s">
-        <v>1173</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -6626,34 +6788,34 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="D72" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="E72" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="F72" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="G72" t="s">
-        <v>639</v>
+        <v>692</v>
       </c>
       <c r="H72" t="s">
-        <v>763</v>
+        <v>817</v>
       </c>
       <c r="I72" t="s">
-        <v>892</v>
+        <v>946</v>
       </c>
       <c r="J72" t="s">
-        <v>1029</v>
+        <v>1083</v>
       </c>
       <c r="K72" t="s">
-        <v>1174</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -6670,25 +6832,25 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="F73" t="s">
-        <v>520</v>
+        <v>571</v>
       </c>
       <c r="G73" t="s">
-        <v>640</v>
+        <v>693</v>
       </c>
       <c r="H73" t="s">
-        <v>764</v>
+        <v>818</v>
       </c>
       <c r="I73" t="s">
-        <v>893</v>
+        <v>947</v>
       </c>
       <c r="J73" t="s">
-        <v>1030</v>
+        <v>1084</v>
       </c>
       <c r="K73" t="s">
-        <v>1175</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -6711,19 +6873,19 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>641</v>
+        <v>694</v>
       </c>
       <c r="H74" t="s">
-        <v>765</v>
+        <v>819</v>
       </c>
       <c r="I74" t="s">
-        <v>894</v>
+        <v>948</v>
       </c>
       <c r="J74" t="s">
-        <v>1031</v>
+        <v>1085</v>
       </c>
       <c r="K74" t="s">
-        <v>1176</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -6752,13 +6914,13 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>895</v>
+        <v>949</v>
       </c>
       <c r="J75" t="s">
-        <v>1032</v>
+        <v>1086</v>
       </c>
       <c r="K75" t="s">
-        <v>1177</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6772,63 +6934,63 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="E76" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="F76" t="s">
-        <v>521</v>
+        <v>572</v>
       </c>
       <c r="G76" t="s">
-        <v>642</v>
+        <v>695</v>
       </c>
       <c r="H76" t="s">
-        <v>766</v>
+        <v>820</v>
       </c>
       <c r="I76" t="s">
-        <v>896</v>
+        <v>950</v>
       </c>
       <c r="J76" t="s">
-        <v>1033</v>
+        <v>1087</v>
       </c>
       <c r="K76" t="s">
-        <v>1178</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B77" t="b">
-        <v>0</v>
-      </c>
-      <c r="C77" t="b">
-        <v>0</v>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
+      <c r="B77" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" t="s">
+        <v>268</v>
+      </c>
+      <c r="D77" t="s">
+        <v>358</v>
+      </c>
+      <c r="E77" t="s">
+        <v>458</v>
+      </c>
+      <c r="F77" t="s">
+        <v>573</v>
       </c>
       <c r="G77" t="s">
-        <v>643</v>
+        <v>696</v>
       </c>
       <c r="H77" t="s">
-        <v>767</v>
+        <v>821</v>
       </c>
       <c r="I77" t="s">
-        <v>897</v>
+        <v>951</v>
       </c>
       <c r="J77" t="s">
-        <v>1034</v>
+        <v>1088</v>
       </c>
       <c r="K77" t="s">
-        <v>1179</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6836,34 +6998,34 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="D78" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="E78" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="F78" t="s">
-        <v>522</v>
+        <v>574</v>
       </c>
       <c r="G78" t="s">
-        <v>644</v>
+        <v>697</v>
       </c>
       <c r="H78" t="s">
-        <v>768</v>
+        <v>822</v>
       </c>
       <c r="I78" t="s">
-        <v>898</v>
+        <v>952</v>
       </c>
       <c r="J78" t="s">
-        <v>1035</v>
+        <v>1089</v>
       </c>
       <c r="K78" t="s">
-        <v>1180</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -6892,13 +7054,13 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>899</v>
+        <v>953</v>
       </c>
       <c r="J79" t="s">
-        <v>1036</v>
+        <v>1090</v>
       </c>
       <c r="K79" t="s">
-        <v>1181</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6915,25 +7077,25 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="F80" t="s">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="G80" t="s">
-        <v>645</v>
+        <v>698</v>
       </c>
       <c r="H80" t="s">
-        <v>769</v>
+        <v>823</v>
       </c>
       <c r="I80" t="s">
-        <v>900</v>
+        <v>954</v>
       </c>
       <c r="J80" t="s">
-        <v>1037</v>
+        <v>1091</v>
       </c>
       <c r="K80" t="s">
-        <v>1182</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -6965,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>1038</v>
+        <v>1092</v>
       </c>
       <c r="K81" t="s">
-        <v>1183</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -6991,19 +7153,19 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>646</v>
+        <v>699</v>
       </c>
       <c r="H82" t="s">
-        <v>770</v>
+        <v>824</v>
       </c>
       <c r="I82" t="s">
-        <v>901</v>
+        <v>955</v>
       </c>
       <c r="J82" t="s">
-        <v>1039</v>
+        <v>1093</v>
       </c>
       <c r="K82" t="s">
-        <v>1184</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -7011,34 +7173,34 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C83" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="F83" t="s">
-        <v>524</v>
+        <v>576</v>
       </c>
       <c r="G83" t="s">
-        <v>647</v>
+        <v>700</v>
       </c>
       <c r="H83" t="s">
-        <v>771</v>
+        <v>825</v>
       </c>
       <c r="I83" t="s">
-        <v>902</v>
+        <v>956</v>
       </c>
       <c r="J83" t="s">
-        <v>1040</v>
+        <v>1094</v>
       </c>
       <c r="K83" t="s">
-        <v>1185</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -7070,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>1041</v>
+        <v>1095</v>
       </c>
       <c r="K84" t="s">
-        <v>1186</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -7084,31 +7246,31 @@
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="D85" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="E85" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="F85" t="s">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="G85" t="s">
-        <v>648</v>
+        <v>701</v>
       </c>
       <c r="H85" t="s">
-        <v>772</v>
+        <v>826</v>
       </c>
       <c r="I85" t="s">
-        <v>903</v>
+        <v>957</v>
       </c>
       <c r="J85" t="s">
-        <v>1042</v>
+        <v>1096</v>
       </c>
       <c r="K85" t="s">
-        <v>1187</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -7116,69 +7278,69 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C86" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D86" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="E86" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="F86" t="s">
-        <v>526</v>
+        <v>578</v>
       </c>
       <c r="G86" t="s">
-        <v>649</v>
+        <v>702</v>
       </c>
       <c r="H86" t="s">
-        <v>773</v>
+        <v>827</v>
       </c>
       <c r="I86" t="s">
-        <v>904</v>
+        <v>958</v>
       </c>
       <c r="J86" t="s">
-        <v>1043</v>
+        <v>1097</v>
       </c>
       <c r="K86" t="s">
-        <v>1188</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B87" t="b">
-        <v>0</v>
-      </c>
-      <c r="C87" t="b">
-        <v>0</v>
-      </c>
-      <c r="D87" t="b">
-        <v>0</v>
-      </c>
-      <c r="E87" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
+      <c r="B87" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" t="s">
+        <v>362</v>
+      </c>
+      <c r="E87" t="s">
+        <v>464</v>
+      </c>
+      <c r="F87" t="s">
+        <v>579</v>
       </c>
       <c r="G87" t="s">
-        <v>650</v>
+        <v>703</v>
       </c>
       <c r="H87" t="s">
-        <v>774</v>
+        <v>828</v>
       </c>
       <c r="I87" t="s">
-        <v>905</v>
+        <v>959</v>
       </c>
       <c r="J87" t="s">
-        <v>1044</v>
+        <v>1098</v>
       </c>
       <c r="K87" t="s">
-        <v>1189</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -7207,13 +7369,13 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>906</v>
+        <v>960</v>
       </c>
       <c r="J88" t="s">
-        <v>1045</v>
+        <v>1099</v>
       </c>
       <c r="K88" t="s">
-        <v>1190</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -7224,31 +7386,31 @@
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="D89" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="E89" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="F89" t="s">
-        <v>527</v>
+        <v>580</v>
       </c>
       <c r="G89" t="s">
-        <v>651</v>
+        <v>704</v>
       </c>
       <c r="H89" t="s">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="I89" t="s">
-        <v>907</v>
+        <v>961</v>
       </c>
       <c r="J89" t="s">
-        <v>1046</v>
+        <v>1100</v>
       </c>
       <c r="K89" t="s">
-        <v>1191</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -7274,16 +7436,16 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>776</v>
+        <v>830</v>
       </c>
       <c r="I90" t="s">
-        <v>908</v>
+        <v>962</v>
       </c>
       <c r="J90" t="s">
-        <v>1047</v>
+        <v>1101</v>
       </c>
       <c r="K90" t="s">
-        <v>1192</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -7291,34 +7453,34 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C91" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="D91" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="E91" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="F91" t="s">
-        <v>528</v>
+        <v>581</v>
       </c>
       <c r="G91" t="s">
-        <v>652</v>
+        <v>705</v>
       </c>
       <c r="H91" t="s">
-        <v>777</v>
+        <v>831</v>
       </c>
       <c r="I91" t="s">
-        <v>909</v>
+        <v>963</v>
       </c>
       <c r="J91" t="s">
-        <v>1048</v>
+        <v>1102</v>
       </c>
       <c r="K91" t="s">
-        <v>1193</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -7326,34 +7488,34 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C92" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="D92" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="E92" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="F92" t="s">
-        <v>529</v>
+        <v>582</v>
       </c>
       <c r="G92" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="H92" t="s">
-        <v>778</v>
+        <v>832</v>
       </c>
       <c r="I92" t="s">
-        <v>910</v>
+        <v>964</v>
       </c>
       <c r="J92" t="s">
-        <v>1049</v>
+        <v>1103</v>
       </c>
       <c r="K92" t="s">
-        <v>1194</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -7361,34 +7523,34 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C93" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="D93" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="E93" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="F93" t="s">
-        <v>530</v>
+        <v>583</v>
       </c>
       <c r="G93" t="s">
-        <v>654</v>
+        <v>707</v>
       </c>
       <c r="H93" t="s">
-        <v>779</v>
+        <v>833</v>
       </c>
       <c r="I93" t="s">
-        <v>911</v>
+        <v>965</v>
       </c>
       <c r="J93" t="s">
-        <v>1050</v>
+        <v>1104</v>
       </c>
       <c r="K93" t="s">
-        <v>1195</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -7399,31 +7561,31 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="D94" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="E94" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="F94" t="s">
-        <v>531</v>
+        <v>584</v>
       </c>
       <c r="G94" t="s">
-        <v>655</v>
+        <v>708</v>
       </c>
       <c r="H94" t="s">
-        <v>780</v>
+        <v>834</v>
       </c>
       <c r="I94" t="s">
-        <v>912</v>
+        <v>966</v>
       </c>
       <c r="J94" t="s">
-        <v>1051</v>
+        <v>1105</v>
       </c>
       <c r="K94" t="s">
-        <v>1196</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -7431,13 +7593,13 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C95" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="D95" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
@@ -7469,25 +7631,25 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="D96" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="E96" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="F96" t="s">
-        <v>532</v>
+        <v>585</v>
       </c>
       <c r="G96" t="s">
-        <v>656</v>
+        <v>709</v>
       </c>
       <c r="H96" t="s">
-        <v>781</v>
+        <v>835</v>
       </c>
       <c r="I96" t="s">
-        <v>913</v>
+        <v>967</v>
       </c>
       <c r="J96" t="b">
         <v>0</v>
@@ -7501,34 +7663,34 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C97" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="D97" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="E97" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="F97" t="s">
-        <v>533</v>
+        <v>586</v>
       </c>
       <c r="G97" t="s">
-        <v>657</v>
+        <v>710</v>
       </c>
       <c r="H97" t="s">
-        <v>782</v>
+        <v>836</v>
       </c>
       <c r="I97" t="s">
-        <v>914</v>
+        <v>968</v>
       </c>
       <c r="J97" t="s">
-        <v>1052</v>
+        <v>1106</v>
       </c>
       <c r="K97" t="s">
-        <v>1197</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -7557,13 +7719,13 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>915</v>
+        <v>969</v>
       </c>
       <c r="J98" t="s">
-        <v>1053</v>
+        <v>1107</v>
       </c>
       <c r="K98" t="s">
-        <v>1198</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -7595,10 +7757,10 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>1054</v>
+        <v>1108</v>
       </c>
       <c r="K99" t="s">
-        <v>1199</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -7615,25 +7777,25 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="F100" t="s">
-        <v>534</v>
+        <v>587</v>
       </c>
       <c r="G100" t="s">
-        <v>658</v>
+        <v>711</v>
       </c>
       <c r="H100" t="s">
-        <v>783</v>
+        <v>837</v>
       </c>
       <c r="I100" t="s">
-        <v>916</v>
+        <v>970</v>
       </c>
       <c r="J100" t="s">
-        <v>1055</v>
+        <v>1109</v>
       </c>
       <c r="K100" t="s">
-        <v>1200</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -7653,22 +7815,22 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>535</v>
+        <v>588</v>
       </c>
       <c r="G101" t="s">
-        <v>659</v>
+        <v>712</v>
       </c>
       <c r="H101" t="s">
-        <v>784</v>
+        <v>838</v>
       </c>
       <c r="I101" t="s">
-        <v>917</v>
+        <v>971</v>
       </c>
       <c r="J101" t="s">
-        <v>1056</v>
+        <v>1110</v>
       </c>
       <c r="K101" t="s">
-        <v>1201</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -7685,25 +7847,25 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="F102" t="s">
-        <v>536</v>
+        <v>589</v>
       </c>
       <c r="G102" t="s">
-        <v>660</v>
+        <v>713</v>
       </c>
       <c r="H102" t="s">
-        <v>785</v>
+        <v>839</v>
       </c>
       <c r="I102" t="s">
-        <v>918</v>
+        <v>972</v>
       </c>
       <c r="J102" t="s">
-        <v>1057</v>
+        <v>1111</v>
       </c>
       <c r="K102" t="s">
-        <v>1202</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -7738,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>1203</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -7770,10 +7932,10 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>1058</v>
+        <v>1112</v>
       </c>
       <c r="K104" t="s">
-        <v>1204</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -7808,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>1205</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -7840,10 +8002,10 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>1059</v>
+        <v>1113</v>
       </c>
       <c r="K106" t="s">
-        <v>1206</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -7863,22 +8025,22 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>537</v>
+        <v>590</v>
       </c>
       <c r="G107" t="s">
-        <v>661</v>
+        <v>714</v>
       </c>
       <c r="H107" t="s">
-        <v>786</v>
+        <v>840</v>
       </c>
       <c r="I107" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="J107" t="s">
-        <v>1060</v>
+        <v>1114</v>
       </c>
       <c r="K107" t="s">
-        <v>1207</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -7907,48 +8069,48 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
       <c r="J108" t="s">
-        <v>1061</v>
+        <v>1115</v>
       </c>
       <c r="K108" t="s">
-        <v>1208</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B109" t="b">
-        <v>0</v>
-      </c>
-      <c r="C109" t="b">
-        <v>0</v>
-      </c>
-      <c r="D109" t="b">
-        <v>0</v>
-      </c>
-      <c r="E109" t="b">
-        <v>0</v>
+      <c r="B109" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" t="s">
+        <v>282</v>
+      </c>
+      <c r="D109" t="s">
+        <v>371</v>
+      </c>
+      <c r="E109" t="s">
+        <v>474</v>
       </c>
       <c r="F109" t="s">
-        <v>538</v>
+        <v>591</v>
       </c>
       <c r="G109" t="s">
-        <v>662</v>
+        <v>715</v>
       </c>
       <c r="H109" t="s">
-        <v>787</v>
+        <v>841</v>
       </c>
       <c r="I109" t="s">
-        <v>921</v>
+        <v>975</v>
       </c>
       <c r="J109" t="s">
-        <v>1062</v>
+        <v>1116</v>
       </c>
       <c r="K109" t="s">
-        <v>1209</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -7956,34 +8118,34 @@
         <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C110" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="D110" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="E110" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="F110" t="s">
-        <v>539</v>
+        <v>592</v>
       </c>
       <c r="G110" t="s">
-        <v>663</v>
+        <v>716</v>
       </c>
       <c r="H110" t="s">
-        <v>788</v>
+        <v>842</v>
       </c>
       <c r="I110" t="s">
-        <v>922</v>
+        <v>976</v>
       </c>
       <c r="J110" t="s">
-        <v>1063</v>
+        <v>1117</v>
       </c>
       <c r="K110" t="s">
-        <v>1210</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -7991,34 +8153,34 @@
         <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="D111" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="E111" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="F111" t="s">
-        <v>540</v>
+        <v>593</v>
       </c>
       <c r="G111" t="s">
-        <v>664</v>
+        <v>717</v>
       </c>
       <c r="H111" t="s">
-        <v>789</v>
+        <v>843</v>
       </c>
       <c r="I111" t="s">
-        <v>923</v>
+        <v>977</v>
       </c>
       <c r="J111" t="s">
-        <v>1064</v>
+        <v>1118</v>
       </c>
       <c r="K111" t="s">
-        <v>1211</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -8053,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>1212</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -8061,34 +8223,34 @@
         <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C113" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="D113" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="E113" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="F113" t="s">
-        <v>541</v>
+        <v>594</v>
       </c>
       <c r="G113" t="s">
-        <v>665</v>
+        <v>718</v>
       </c>
       <c r="H113" t="s">
-        <v>790</v>
+        <v>844</v>
       </c>
       <c r="I113" t="s">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="J113" t="s">
-        <v>1065</v>
+        <v>1119</v>
       </c>
       <c r="K113" t="s">
-        <v>1213</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -8120,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>1066</v>
+        <v>1120</v>
       </c>
       <c r="K114" t="s">
-        <v>1214</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -8131,34 +8293,34 @@
         <v>124</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C115" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="D115" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="E115" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="F115" t="s">
-        <v>542</v>
+        <v>595</v>
       </c>
       <c r="G115" t="s">
-        <v>666</v>
+        <v>719</v>
       </c>
       <c r="H115" t="s">
-        <v>791</v>
+        <v>845</v>
       </c>
       <c r="I115" t="s">
-        <v>925</v>
+        <v>979</v>
       </c>
       <c r="J115" t="s">
-        <v>1067</v>
+        <v>1121</v>
       </c>
       <c r="K115" t="s">
-        <v>1215</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -8166,34 +8328,34 @@
         <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C116" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="D116" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="E116" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="F116" t="s">
-        <v>543</v>
+        <v>596</v>
       </c>
       <c r="G116" t="s">
-        <v>667</v>
+        <v>720</v>
       </c>
       <c r="H116" t="s">
-        <v>792</v>
+        <v>846</v>
       </c>
       <c r="I116" t="s">
-        <v>926</v>
+        <v>980</v>
       </c>
       <c r="J116" t="s">
-        <v>1068</v>
+        <v>1122</v>
       </c>
       <c r="K116" t="s">
-        <v>1216</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -8201,34 +8363,34 @@
         <v>126</v>
       </c>
       <c r="B117" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C117" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="D117" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="E117" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="F117" t="s">
-        <v>544</v>
+        <v>597</v>
       </c>
       <c r="G117" t="s">
-        <v>668</v>
+        <v>721</v>
       </c>
       <c r="H117" t="s">
-        <v>793</v>
+        <v>847</v>
       </c>
       <c r="I117" t="s">
-        <v>927</v>
+        <v>981</v>
       </c>
       <c r="J117" t="s">
-        <v>1069</v>
+        <v>1123</v>
       </c>
       <c r="K117" t="s">
-        <v>1217</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -8263,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>1218</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -8271,69 +8433,69 @@
         <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C119" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="D119" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="E119" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="F119" t="s">
-        <v>545</v>
+        <v>598</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>794</v>
+        <v>848</v>
       </c>
       <c r="I119" t="s">
-        <v>928</v>
+        <v>982</v>
       </c>
       <c r="J119" t="s">
-        <v>1070</v>
+        <v>1124</v>
       </c>
       <c r="K119" t="s">
-        <v>1219</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B120" t="b">
-        <v>0</v>
-      </c>
-      <c r="C120" t="b">
-        <v>0</v>
-      </c>
-      <c r="D120" t="b">
-        <v>0</v>
-      </c>
-      <c r="E120" t="b">
-        <v>0</v>
+      <c r="B120" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120" t="s">
+        <v>290</v>
+      </c>
+      <c r="D120" t="s">
+        <v>379</v>
+      </c>
+      <c r="E120" t="s">
+        <v>482</v>
       </c>
       <c r="F120" t="s">
-        <v>546</v>
+        <v>599</v>
       </c>
       <c r="G120" t="s">
-        <v>669</v>
+        <v>722</v>
       </c>
       <c r="H120" t="s">
-        <v>795</v>
+        <v>849</v>
       </c>
       <c r="I120" t="s">
-        <v>929</v>
+        <v>983</v>
       </c>
       <c r="J120" t="s">
-        <v>1071</v>
+        <v>1125</v>
       </c>
       <c r="K120" t="s">
-        <v>1220</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -8341,34 +8503,34 @@
         <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C121" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="D121" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="E121" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="F121" t="s">
-        <v>547</v>
+        <v>600</v>
       </c>
       <c r="G121" t="s">
-        <v>670</v>
+        <v>723</v>
       </c>
       <c r="H121" t="s">
-        <v>796</v>
+        <v>850</v>
       </c>
       <c r="I121" t="s">
-        <v>930</v>
+        <v>984</v>
       </c>
       <c r="J121" t="s">
-        <v>1072</v>
+        <v>1126</v>
       </c>
       <c r="K121" t="s">
-        <v>1221</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -8376,34 +8538,34 @@
         <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C122" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="D122" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="E122" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="F122" t="s">
-        <v>548</v>
+        <v>601</v>
       </c>
       <c r="G122" t="s">
-        <v>671</v>
+        <v>724</v>
       </c>
       <c r="H122" t="s">
-        <v>797</v>
+        <v>851</v>
       </c>
       <c r="I122" t="s">
-        <v>931</v>
+        <v>985</v>
       </c>
       <c r="J122" t="s">
-        <v>1073</v>
+        <v>1127</v>
       </c>
       <c r="K122" t="s">
-        <v>1222</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -8414,31 +8576,31 @@
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="D123" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="E123" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="F123" t="s">
-        <v>549</v>
+        <v>602</v>
       </c>
       <c r="G123" t="s">
-        <v>672</v>
+        <v>725</v>
       </c>
       <c r="H123" t="s">
-        <v>798</v>
+        <v>852</v>
       </c>
       <c r="I123" t="s">
-        <v>932</v>
+        <v>986</v>
       </c>
       <c r="J123" t="s">
-        <v>1074</v>
+        <v>1128</v>
       </c>
       <c r="K123" t="s">
-        <v>1223</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -8446,34 +8608,34 @@
         <v>133</v>
       </c>
       <c r="B124" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C124" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="D124" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="E124" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="F124" t="s">
-        <v>550</v>
+        <v>603</v>
       </c>
       <c r="G124" t="s">
-        <v>673</v>
+        <v>726</v>
       </c>
       <c r="H124" t="s">
-        <v>799</v>
+        <v>853</v>
       </c>
       <c r="I124" t="s">
-        <v>933</v>
+        <v>987</v>
       </c>
       <c r="J124" t="s">
-        <v>1075</v>
+        <v>1129</v>
       </c>
       <c r="K124" t="s">
-        <v>1224</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -8481,34 +8643,34 @@
         <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C125" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="D125" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="E125" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="F125" t="s">
-        <v>551</v>
+        <v>604</v>
       </c>
       <c r="G125" t="s">
-        <v>674</v>
+        <v>727</v>
       </c>
       <c r="H125" t="s">
-        <v>800</v>
+        <v>854</v>
       </c>
       <c r="I125" t="s">
-        <v>934</v>
+        <v>988</v>
       </c>
       <c r="J125" t="s">
-        <v>1076</v>
+        <v>1130</v>
       </c>
       <c r="K125" t="s">
-        <v>1225</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -8522,28 +8684,28 @@
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="E126" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="F126" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
       <c r="G126" t="s">
-        <v>675</v>
+        <v>728</v>
       </c>
       <c r="H126" t="s">
-        <v>801</v>
+        <v>855</v>
       </c>
       <c r="I126" t="s">
-        <v>935</v>
+        <v>989</v>
       </c>
       <c r="J126" t="s">
-        <v>1077</v>
+        <v>1131</v>
       </c>
       <c r="K126" t="s">
-        <v>1226</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -8560,25 +8722,25 @@
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="F127" t="s">
-        <v>553</v>
+        <v>606</v>
       </c>
       <c r="G127" t="s">
-        <v>676</v>
+        <v>729</v>
       </c>
       <c r="H127" t="s">
-        <v>802</v>
+        <v>856</v>
       </c>
       <c r="I127" t="s">
-        <v>936</v>
+        <v>990</v>
       </c>
       <c r="J127" t="s">
-        <v>1078</v>
+        <v>1132</v>
       </c>
       <c r="K127" t="s">
-        <v>1227</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -8586,34 +8748,34 @@
         <v>137</v>
       </c>
       <c r="B128" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C128" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="D128" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="E128" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="F128" t="s">
-        <v>554</v>
+        <v>607</v>
       </c>
       <c r="G128" t="s">
-        <v>677</v>
+        <v>730</v>
       </c>
       <c r="H128" t="s">
-        <v>803</v>
+        <v>857</v>
       </c>
       <c r="I128" t="s">
-        <v>937</v>
+        <v>991</v>
       </c>
       <c r="J128" t="s">
-        <v>1079</v>
+        <v>1133</v>
       </c>
       <c r="K128" t="s">
-        <v>1228</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -8624,31 +8786,31 @@
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="D129" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="E129" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="F129" t="s">
-        <v>555</v>
+        <v>608</v>
       </c>
       <c r="G129" t="s">
-        <v>678</v>
+        <v>731</v>
       </c>
       <c r="H129" t="s">
-        <v>804</v>
+        <v>858</v>
       </c>
       <c r="I129" t="s">
-        <v>938</v>
+        <v>992</v>
       </c>
       <c r="J129" t="s">
-        <v>1080</v>
+        <v>1134</v>
       </c>
       <c r="K129" t="s">
-        <v>1229</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -8665,25 +8827,25 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="F130" t="s">
-        <v>556</v>
+        <v>609</v>
       </c>
       <c r="G130" t="s">
-        <v>679</v>
+        <v>732</v>
       </c>
       <c r="H130" t="s">
-        <v>805</v>
+        <v>859</v>
       </c>
       <c r="I130" t="s">
-        <v>939</v>
+        <v>993</v>
       </c>
       <c r="J130" t="s">
-        <v>1081</v>
+        <v>1135</v>
       </c>
       <c r="K130" t="s">
-        <v>1230</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -8709,16 +8871,16 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>806</v>
+        <v>860</v>
       </c>
       <c r="I131" t="s">
-        <v>940</v>
+        <v>994</v>
       </c>
       <c r="J131" t="s">
-        <v>1082</v>
+        <v>1136</v>
       </c>
       <c r="K131" t="s">
-        <v>1231</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -8726,34 +8888,34 @@
         <v>141</v>
       </c>
       <c r="B132" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C132" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="D132" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="E132" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="F132" t="s">
-        <v>557</v>
+        <v>610</v>
       </c>
       <c r="G132" t="s">
-        <v>680</v>
+        <v>733</v>
       </c>
       <c r="H132" t="s">
-        <v>807</v>
+        <v>861</v>
       </c>
       <c r="I132" t="s">
-        <v>941</v>
+        <v>995</v>
       </c>
       <c r="J132" t="s">
-        <v>1083</v>
+        <v>1137</v>
       </c>
       <c r="K132" t="s">
-        <v>1232</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -8782,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>942</v>
+        <v>996</v>
       </c>
       <c r="J133" t="s">
-        <v>1084</v>
+        <v>1138</v>
       </c>
       <c r="K133" t="s">
-        <v>1233</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -8805,25 +8967,25 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="F134" t="s">
-        <v>558</v>
+        <v>611</v>
       </c>
       <c r="G134" t="s">
-        <v>681</v>
+        <v>734</v>
       </c>
       <c r="H134" t="s">
-        <v>808</v>
+        <v>862</v>
       </c>
       <c r="I134" t="s">
-        <v>943</v>
+        <v>997</v>
       </c>
       <c r="J134" t="s">
-        <v>1085</v>
+        <v>1139</v>
       </c>
       <c r="K134" t="s">
-        <v>1234</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -8840,25 +9002,25 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="F135" t="s">
-        <v>559</v>
+        <v>612</v>
       </c>
       <c r="G135" t="s">
-        <v>682</v>
+        <v>735</v>
       </c>
       <c r="H135" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="I135" t="s">
-        <v>944</v>
+        <v>998</v>
       </c>
       <c r="J135" t="s">
-        <v>1086</v>
+        <v>1140</v>
       </c>
       <c r="K135" t="s">
-        <v>1235</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -8869,31 +9031,31 @@
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D136" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="E136" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="F136" t="s">
-        <v>560</v>
+        <v>613</v>
       </c>
       <c r="G136" t="s">
-        <v>683</v>
+        <v>736</v>
       </c>
       <c r="H136" t="s">
-        <v>810</v>
+        <v>864</v>
       </c>
       <c r="I136" t="s">
-        <v>945</v>
+        <v>999</v>
       </c>
       <c r="J136" t="s">
-        <v>1087</v>
+        <v>1141</v>
       </c>
       <c r="K136" t="s">
-        <v>1236</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -8901,34 +9063,34 @@
         <v>146</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C137" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="D137" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="E137" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="F137" t="s">
-        <v>561</v>
+        <v>614</v>
       </c>
       <c r="G137" t="s">
-        <v>684</v>
+        <v>737</v>
       </c>
       <c r="H137" t="s">
-        <v>811</v>
+        <v>865</v>
       </c>
       <c r="I137" t="s">
-        <v>946</v>
+        <v>1000</v>
       </c>
       <c r="J137" t="s">
-        <v>1088</v>
+        <v>1142</v>
       </c>
       <c r="K137" t="s">
-        <v>1237</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -8936,34 +9098,34 @@
         <v>147</v>
       </c>
       <c r="B138" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C138" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="D138" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="E138" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="F138" t="s">
-        <v>562</v>
+        <v>615</v>
       </c>
       <c r="G138" t="s">
-        <v>685</v>
+        <v>738</v>
       </c>
       <c r="H138" t="s">
-        <v>812</v>
+        <v>866</v>
       </c>
       <c r="I138" t="s">
-        <v>947</v>
+        <v>1001</v>
       </c>
       <c r="J138" t="s">
-        <v>1089</v>
+        <v>1143</v>
       </c>
       <c r="K138" t="s">
-        <v>1238</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -8995,10 +9157,10 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>1090</v>
+        <v>1144</v>
       </c>
       <c r="K139" t="s">
-        <v>1239</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -9006,34 +9168,34 @@
         <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C140" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="D140" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="E140" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="F140" t="s">
-        <v>563</v>
+        <v>616</v>
       </c>
       <c r="G140" t="s">
-        <v>686</v>
+        <v>739</v>
       </c>
       <c r="H140" t="s">
-        <v>813</v>
+        <v>867</v>
       </c>
       <c r="I140" t="s">
-        <v>948</v>
+        <v>1002</v>
       </c>
       <c r="J140" t="s">
-        <v>1091</v>
+        <v>1145</v>
       </c>
       <c r="K140" t="s">
-        <v>1240</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -9041,34 +9203,34 @@
         <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C141" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="D141" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="E141" t="s">
-        <v>453</v>
+        <v>500</v>
       </c>
       <c r="F141" t="s">
-        <v>564</v>
+        <v>617</v>
       </c>
       <c r="G141" t="s">
-        <v>687</v>
+        <v>740</v>
       </c>
       <c r="H141" t="s">
-        <v>814</v>
+        <v>868</v>
       </c>
       <c r="I141" t="s">
-        <v>949</v>
+        <v>1003</v>
       </c>
       <c r="J141" t="s">
-        <v>1092</v>
+        <v>1146</v>
       </c>
       <c r="K141" t="s">
-        <v>1241</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -9076,34 +9238,34 @@
         <v>151</v>
       </c>
       <c r="B142" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C142" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="D142" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="E142" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
       <c r="F142" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="G142" t="s">
-        <v>688</v>
+        <v>741</v>
       </c>
       <c r="H142" t="s">
-        <v>815</v>
+        <v>869</v>
       </c>
       <c r="I142" t="s">
-        <v>950</v>
+        <v>1004</v>
       </c>
       <c r="J142" t="s">
-        <v>1093</v>
+        <v>1147</v>
       </c>
       <c r="K142" t="s">
-        <v>1242</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -9111,34 +9273,34 @@
         <v>152</v>
       </c>
       <c r="B143" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C143" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="D143" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="E143" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="F143" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="G143" t="s">
-        <v>689</v>
+        <v>742</v>
       </c>
       <c r="H143" t="s">
-        <v>816</v>
+        <v>870</v>
       </c>
       <c r="I143" t="s">
-        <v>951</v>
+        <v>1005</v>
       </c>
       <c r="J143" t="s">
-        <v>1094</v>
+        <v>1148</v>
       </c>
       <c r="K143" t="s">
-        <v>1243</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -9146,34 +9308,34 @@
         <v>153</v>
       </c>
       <c r="B144" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C144" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="D144" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="E144" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="F144" t="s">
-        <v>567</v>
+        <v>620</v>
       </c>
       <c r="G144" t="s">
-        <v>690</v>
+        <v>743</v>
       </c>
       <c r="H144" t="s">
-        <v>817</v>
+        <v>871</v>
       </c>
       <c r="I144" t="s">
-        <v>952</v>
+        <v>1006</v>
       </c>
       <c r="J144" t="s">
-        <v>1095</v>
+        <v>1149</v>
       </c>
       <c r="K144" t="s">
-        <v>1244</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -9181,34 +9343,34 @@
         <v>154</v>
       </c>
       <c r="B145" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C145" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="D145" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="E145" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="F145" t="s">
-        <v>568</v>
+        <v>621</v>
       </c>
       <c r="G145" t="s">
-        <v>691</v>
+        <v>744</v>
       </c>
       <c r="H145" t="s">
-        <v>818</v>
+        <v>872</v>
       </c>
       <c r="I145" t="s">
-        <v>953</v>
+        <v>1007</v>
       </c>
       <c r="J145" t="s">
-        <v>1096</v>
+        <v>1150</v>
       </c>
       <c r="K145" t="s">
-        <v>1245</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -9216,34 +9378,34 @@
         <v>155</v>
       </c>
       <c r="B146" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C146" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="D146" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="E146" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="F146" t="s">
-        <v>569</v>
+        <v>622</v>
       </c>
       <c r="G146" t="s">
-        <v>692</v>
+        <v>745</v>
       </c>
       <c r="H146" t="s">
-        <v>819</v>
+        <v>873</v>
       </c>
       <c r="I146" t="s">
-        <v>954</v>
+        <v>1008</v>
       </c>
       <c r="J146" t="s">
-        <v>1097</v>
+        <v>1151</v>
       </c>
       <c r="K146" t="s">
-        <v>1246</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -9260,25 +9422,25 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
       <c r="F147" t="s">
-        <v>570</v>
+        <v>623</v>
       </c>
       <c r="G147" t="s">
-        <v>693</v>
+        <v>746</v>
       </c>
       <c r="H147" t="s">
-        <v>820</v>
+        <v>874</v>
       </c>
       <c r="I147" t="s">
-        <v>955</v>
+        <v>1009</v>
       </c>
       <c r="J147" t="s">
-        <v>1098</v>
+        <v>1152</v>
       </c>
       <c r="K147" t="s">
-        <v>1247</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -9286,34 +9448,34 @@
         <v>157</v>
       </c>
       <c r="B148" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C148" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="D148" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="E148" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="F148" t="s">
-        <v>571</v>
+        <v>624</v>
       </c>
       <c r="G148" t="s">
-        <v>694</v>
+        <v>747</v>
       </c>
       <c r="H148" t="s">
-        <v>821</v>
+        <v>875</v>
       </c>
       <c r="I148" t="s">
-        <v>956</v>
+        <v>1010</v>
       </c>
       <c r="J148" t="s">
-        <v>1099</v>
+        <v>1153</v>
       </c>
       <c r="K148" t="s">
-        <v>1248</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -9321,34 +9483,34 @@
         <v>158</v>
       </c>
       <c r="B149" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C149" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="D149" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="E149" t="s">
-        <v>461</v>
+        <v>508</v>
       </c>
       <c r="F149" t="s">
-        <v>572</v>
+        <v>625</v>
       </c>
       <c r="G149" t="s">
-        <v>695</v>
+        <v>748</v>
       </c>
       <c r="H149" t="s">
-        <v>822</v>
+        <v>876</v>
       </c>
       <c r="I149" t="s">
-        <v>957</v>
+        <v>1011</v>
       </c>
       <c r="J149" t="s">
-        <v>1100</v>
+        <v>1154</v>
       </c>
       <c r="K149" t="s">
-        <v>1249</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -9374,16 +9536,16 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>823</v>
+        <v>877</v>
       </c>
       <c r="I150" t="s">
-        <v>958</v>
+        <v>1012</v>
       </c>
       <c r="J150" t="s">
-        <v>1101</v>
+        <v>1155</v>
       </c>
       <c r="K150" t="s">
-        <v>1250</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -9391,34 +9553,34 @@
         <v>160</v>
       </c>
       <c r="B151" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C151" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="D151" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="E151" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
       <c r="F151" t="s">
-        <v>573</v>
+        <v>626</v>
       </c>
       <c r="G151" t="s">
-        <v>696</v>
+        <v>749</v>
       </c>
       <c r="H151" t="s">
-        <v>824</v>
+        <v>878</v>
       </c>
       <c r="I151" t="s">
-        <v>959</v>
+        <v>1013</v>
       </c>
       <c r="J151" t="s">
-        <v>1102</v>
+        <v>1156</v>
       </c>
       <c r="K151" t="s">
-        <v>1251</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -9426,34 +9588,34 @@
         <v>161</v>
       </c>
       <c r="B152" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C152" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="D152" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="G152" t="s">
-        <v>697</v>
+        <v>750</v>
       </c>
       <c r="H152" t="s">
-        <v>825</v>
+        <v>879</v>
       </c>
       <c r="I152" t="s">
-        <v>960</v>
+        <v>1014</v>
       </c>
       <c r="J152" t="s">
-        <v>1103</v>
+        <v>1157</v>
       </c>
       <c r="K152" t="s">
-        <v>1252</v>
+        <v>1306</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Logs/Pathways.xlsx
+++ b/Data/Logs/Pathways.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1312">
   <si>
     <t>2011</t>
   </si>
@@ -541,9 +541,15 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/DISH/2011.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/EQIX/2011.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/FLT/2011.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/GME/2011.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/HPQ/2011.txt</t>
   </si>
   <si>
@@ -751,12 +757,18 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/EA/2012.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/EQIX/2012.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/FB/2012.txt</t>
   </si>
   <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/FLT/2012.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/GME/2012.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/HPQ/2012.txt</t>
   </si>
   <si>
@@ -1006,6 +1018,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/EA/2013.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/EQIX/2013.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/FB/2013.txt</t>
   </si>
   <si>
@@ -1282,6 +1297,9 @@
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/EFX/2014.txt</t>
   </si>
   <si>
+    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/EQIX/2014.txt</t>
+  </si>
+  <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/FB/2014.txt</t>
   </si>
   <si>
@@ -1811,9 +1829,6 @@
   </si>
   <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CCOI/2015.txt</t>
-  </si>
-  <si>
-    <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CNSL/2015.txt</t>
   </si>
   <si>
     <t>/Users/george/Desktop/Projects/Capstone/Langague-Analysis/Data/Samples/CALX/2015.txt</t>
@@ -4347,25 +4362,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="F2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="G2" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="H2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="I2" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="J2" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="K2" t="s">
-        <v>1158</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4376,31 +4391,31 @@
         <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E3" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F3" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="G3" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="H3" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="I3" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="J3" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="K3" t="s">
-        <v>1159</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4411,31 +4426,31 @@
         <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E4" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F4" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G4" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="H4" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="I4" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="J4" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="K4" t="s">
-        <v>1160</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4446,31 +4461,31 @@
         <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E5" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="F5" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="G5" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="H5" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="I5" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="J5" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="K5" t="s">
-        <v>1161</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4505,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>1162</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4516,31 +4531,31 @@
         <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="G7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="H7" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="I7" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="J7" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="K7" t="s">
-        <v>1163</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4566,16 +4581,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="I8" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J8" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="K8" t="s">
-        <v>1164</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4586,31 +4601,31 @@
         <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E9" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F9" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G9" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="H9" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="I9" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="J9" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="K9" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4624,28 +4639,28 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E10" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F10" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="G10" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="H10" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="I10" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="J10" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="K10" t="s">
-        <v>1166</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4656,31 +4671,31 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D11" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E11" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F11" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="G11" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H11" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="I11" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="J11" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="K11" t="s">
-        <v>1167</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4706,16 +4721,16 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="I12" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="J12" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="K12" t="s">
-        <v>1168</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4735,22 +4750,22 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G13" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="H13" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="I13" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="J13" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="K13" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4761,31 +4776,31 @@
         <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E14" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F14" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="G14" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="H14" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="I14" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="J14" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="K14" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4796,31 +4811,31 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E15" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F15" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="G15" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="H15" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="I15" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="J15" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="K15" t="s">
-        <v>1171</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4831,31 +4846,31 @@
         <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D16" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E16" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F16" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="G16" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="H16" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="I16" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="J16" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="K16" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4866,31 +4881,31 @@
         <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D17" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E17" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F17" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G17" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H17" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="I17" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="J17" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="K17" t="s">
-        <v>1173</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4910,22 +4925,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="G18" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="H18" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="I18" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="J18" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="K18" t="s">
-        <v>1174</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4936,31 +4951,31 @@
         <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E19" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F19" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G19" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="H19" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="I19" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="J19" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="K19" t="s">
-        <v>1175</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4971,31 +4986,31 @@
         <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D20" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E20" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F20" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="G20" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="H20" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="I20" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="J20" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="K20" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -5006,31 +5021,31 @@
         <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D21" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E21" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F21" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G21" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="H21" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="I21" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="J21" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="K21" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5041,31 +5056,31 @@
         <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D22" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E22" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F22" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G22" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H22" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="I22" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="J22" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="K22" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5076,31 +5091,31 @@
         <v>174</v>
       </c>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D23" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E23" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F23" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G23" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H23" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="I23" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="J23" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="K23" t="s">
-        <v>1179</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -5111,31 +5126,31 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D24" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E24" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F24" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="G24" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="H24" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I24" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="J24" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="K24" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -5152,60 +5167,60 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F25" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="G25" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="H25" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="I25" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="J25" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="K25" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="b">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" t="s">
+        <v>427</v>
       </c>
       <c r="F26" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G26" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="H26" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="I26" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="J26" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="K26" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -5228,19 +5243,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="H27" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="I27" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="J27" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="K27" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -5251,31 +5266,31 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D28" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E28" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F28" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="G28" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="H28" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="I28" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="J28" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="K28" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -5307,10 +5322,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="K29" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -5327,25 +5342,25 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F30" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G30" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="H30" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="I30" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="J30" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="K30" t="s">
-        <v>1186</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -5353,34 +5368,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D31" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E31" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F31" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="G31" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="H31" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="I31" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="J31" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="K31" t="s">
-        <v>1187</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5412,45 +5427,45 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="K32" t="s">
-        <v>1188</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" t="s">
+        <v>250</v>
       </c>
       <c r="D33" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E33" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F33" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="G33" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="H33" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="I33" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="J33" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="K33" t="s">
-        <v>1189</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -5470,22 +5485,22 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="G34" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="H34" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="I34" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="J34" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="K34" t="s">
-        <v>1190</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -5508,19 +5523,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="H35" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="I35" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="J35" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="K35" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -5528,34 +5543,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="G36" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="H36" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="I36" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="J36" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="K36" t="s">
-        <v>1192</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -5563,34 +5578,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D37" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E37" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F37" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="G37" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="H37" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="I37" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="J37" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="K37" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -5604,16 +5619,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E38" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F38" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G38" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -5625,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>1194</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -5633,34 +5648,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C39" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D39" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E39" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F39" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="G39" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="H39" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="I39" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="J39" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="K39" t="s">
-        <v>1195</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5668,34 +5683,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D40" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E40" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F40" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="G40" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="H40" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="I40" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="J40" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="K40" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5709,28 +5724,28 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E41" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F41" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="G41" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="H41" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="I41" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="J41" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="K41" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5738,34 +5753,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D42" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E42" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F42" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G42" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="H42" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="I42" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="J42" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="K42" t="s">
-        <v>1198</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5788,19 +5803,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="H43" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="I43" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="J43" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="K43" t="s">
-        <v>1199</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -5826,16 +5841,16 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="I44" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="J44" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="K44" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5846,31 +5861,31 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D45" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E45" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F45" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="G45" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="H45" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="I45" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="J45" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="K45" t="s">
-        <v>1201</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -5887,25 +5902,25 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F46" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="G46" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="H46" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="I46" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="J46" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="K46" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -5916,31 +5931,31 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D47" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E47" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="F47" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="G47" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="H47" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="I47" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="J47" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="K47" t="s">
-        <v>1203</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5948,34 +5963,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C48" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D48" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E48" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F48" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="G48" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="H48" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="I48" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="J48" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="K48" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -5983,34 +5998,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D49" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E49" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F49" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="G49" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="H49" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="I49" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="J49" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="K49" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -6018,34 +6033,34 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C50" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D50" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E50" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F50" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="G50" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="H50" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="I50" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="J50" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="K50" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -6065,22 +6080,22 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="G51" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="H51" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="I51" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="J51" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="K51" t="s">
-        <v>1207</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -6100,22 +6115,22 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="G52" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="H52" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="I52" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="J52" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="K52" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -6132,25 +6147,25 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F53" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="G53" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="H53" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="I53" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="J53" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="K53" t="s">
-        <v>1209</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -6158,34 +6173,34 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C54" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D54" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E54" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F54" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="G54" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="H54" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="I54" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="J54" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="K54" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -6202,25 +6217,25 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F55" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="G55" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="H55" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="I55" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="J55" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="K55" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -6237,25 +6252,25 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F56" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="G56" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="H56" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="I56" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="J56" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="K56" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -6272,25 +6287,25 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F57" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="G57" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="H57" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="I57" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="J57" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="K57" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -6298,34 +6313,34 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D58" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E58" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F58" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="G58" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H58" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="I58" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="J58" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="K58" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -6336,31 +6351,31 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D59" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E59" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F59" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="G59" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="H59" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="I59" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="J59" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="K59" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -6380,22 +6395,22 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="G60" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="H60" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="I60" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="J60" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="K60" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -6403,34 +6418,34 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D61" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E61" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F61" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="G61" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="H61" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="I61" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="J61" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="K61" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -6441,31 +6456,31 @@
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D62" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E62" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F62" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G62" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="H62" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="I62" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="J62" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="K62" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -6482,25 +6497,25 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F63" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="G63" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="H63" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="I63" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="J63" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="K63" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -6508,34 +6523,34 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D64" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E64" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="F64" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G64" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="H64" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="I64" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="J64" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="K64" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -6543,34 +6558,34 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D65" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E65" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F65" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="G65" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="H65" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="I65" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="J65" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="K65" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -6578,34 +6593,34 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D66" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E66" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="F66" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="G66" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="H66" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="I66" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="J66" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="K66" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -6628,19 +6643,19 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H67" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="I67" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="J67" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="K67" t="s">
-        <v>1223</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -6654,28 +6669,28 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E68" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F68" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="G68" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="H68" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="I68" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="J68" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="K68" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -6692,25 +6707,25 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F69" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="G69" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="H69" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="I69" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="J69" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="K69" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -6721,31 +6736,31 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D70" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E70" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F70" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="G70" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="H70" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="I70" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="J70" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="K70" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -6756,31 +6771,31 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D71" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E71" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F71" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="G71" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="H71" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="I71" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="J71" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="K71" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -6788,34 +6803,34 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C72" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D72" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E72" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F72" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="G72" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="H72" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="I72" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="J72" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="K72" t="s">
-        <v>1228</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -6832,25 +6847,25 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F73" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="G73" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="H73" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="I73" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="J73" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="K73" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -6873,19 +6888,19 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="H74" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="I74" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="J74" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="K74" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -6914,13 +6929,13 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="J75" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="K75" t="s">
-        <v>1231</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6934,28 +6949,28 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E76" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F76" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="G76" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H76" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="I76" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="J76" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="K76" t="s">
-        <v>1232</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6963,34 +6978,34 @@
         <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D77" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E77" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F77" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="G77" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="H77" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="I77" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="J77" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="K77" t="s">
-        <v>1233</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6998,34 +7013,34 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D78" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E78" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F78" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="G78" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="H78" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="I78" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="J78" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="K78" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -7054,13 +7069,13 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="J79" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="K79" t="s">
-        <v>1235</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -7077,25 +7092,25 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F80" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="G80" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="H80" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="I80" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="J80" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="K80" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -7127,10 +7142,10 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="K81" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -7153,19 +7168,19 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="H82" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="I82" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="J82" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="K82" t="s">
-        <v>1238</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -7173,34 +7188,34 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="F83" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="G83" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="H83" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="I83" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="J83" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="K83" t="s">
-        <v>1239</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -7232,10 +7247,10 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="K84" t="s">
-        <v>1240</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -7246,31 +7261,31 @@
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D85" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E85" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F85" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="G85" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="H85" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="I85" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="J85" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="K85" t="s">
-        <v>1241</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -7278,34 +7293,34 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C86" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D86" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E86" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F86" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="G86" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="H86" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="I86" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="J86" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="K86" t="s">
-        <v>1242</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -7313,34 +7328,34 @@
         <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C87" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D87" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E87" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="F87" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="G87" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="H87" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="I87" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="J87" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="K87" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -7369,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="J88" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="K88" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -7386,31 +7401,31 @@
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D89" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E89" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F89" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="G89" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="H89" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="I89" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="J89" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="K89" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -7436,16 +7451,16 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="I90" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="J90" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="K90" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -7453,34 +7468,34 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D91" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E91" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F91" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="G91" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="H91" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="I91" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="J91" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="K91" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -7488,34 +7503,34 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C92" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D92" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E92" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F92" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="G92" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="H92" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="I92" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="J92" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="K92" t="s">
-        <v>1248</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -7523,34 +7538,34 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C93" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D93" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E93" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F93" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="G93" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="H93" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="I93" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="J93" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="K93" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -7561,31 +7576,31 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D94" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E94" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F94" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="G94" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="H94" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="I94" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="J94" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="K94" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -7593,13 +7608,13 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D95" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
@@ -7631,25 +7646,25 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D96" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E96" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F96" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="G96" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="H96" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="I96" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="J96" t="b">
         <v>0</v>
@@ -7663,34 +7678,34 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D97" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E97" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F97" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="G97" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="H97" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="I97" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="J97" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="K97" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -7719,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="J98" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="K98" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -7757,10 +7772,10 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="K99" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -7777,25 +7792,25 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F100" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="G100" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H100" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="I100" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="J100" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="K100" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -7815,22 +7830,22 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="G101" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="H101" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="I101" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="J101" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="K101" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -7847,25 +7862,25 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F102" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="G102" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="H102" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="I102" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="J102" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="K102" t="s">
-        <v>1256</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -7900,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -7932,10 +7947,10 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="K104" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -7970,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>1259</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -8002,10 +8017,10 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="K106" t="s">
-        <v>1260</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -8025,22 +8040,22 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="G107" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="H107" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="I107" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="J107" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="K107" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -8069,13 +8084,13 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="J108" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="K108" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -8083,34 +8098,34 @@
         <v>118</v>
       </c>
       <c r="B109" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C109" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D109" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E109" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F109" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="G109" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="H109" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="I109" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="J109" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="K109" t="s">
-        <v>1263</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -8118,34 +8133,34 @@
         <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C110" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D110" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E110" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F110" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="G110" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="H110" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="I110" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="J110" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="K110" t="s">
-        <v>1264</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -8153,34 +8168,34 @@
         <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C111" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D111" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E111" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F111" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="G111" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="H111" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="I111" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="J111" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="K111" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -8215,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>1266</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -8223,34 +8238,34 @@
         <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C113" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D113" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E113" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F113" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="G113" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="H113" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="I113" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="J113" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="K113" t="s">
-        <v>1267</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -8282,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="K114" t="s">
-        <v>1268</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -8293,34 +8308,34 @@
         <v>124</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C115" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D115" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E115" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F115" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="G115" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="H115" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="I115" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="J115" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="K115" t="s">
-        <v>1269</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -8328,34 +8343,34 @@
         <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C116" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D116" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E116" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F116" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="G116" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="H116" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="I116" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="J116" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="K116" t="s">
-        <v>1270</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -8363,34 +8378,34 @@
         <v>126</v>
       </c>
       <c r="B117" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C117" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D117" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E117" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F117" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G117" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="H117" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="I117" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="J117" t="s">
-        <v>1123</v>
+        <v>1128</v>
       </c>
       <c r="K117" t="s">
-        <v>1271</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -8425,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>1272</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -8433,34 +8448,34 @@
         <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C119" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D119" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E119" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F119" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="I119" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="J119" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="K119" t="s">
-        <v>1273</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -8468,34 +8483,34 @@
         <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C120" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D120" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E120" t="s">
-        <v>482</v>
-      </c>
-      <c r="F120" t="s">
-        <v>599</v>
+        <v>488</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="H120" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="I120" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="J120" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="K120" t="s">
-        <v>1274</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -8503,34 +8518,34 @@
         <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C121" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D121" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E121" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F121" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="G121" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="H121" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="I121" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="J121" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="K121" t="s">
-        <v>1275</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -8538,34 +8553,34 @@
         <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C122" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D122" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E122" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="F122" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="G122" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="H122" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="I122" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="J122" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="K122" t="s">
-        <v>1276</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -8576,31 +8591,31 @@
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D123" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E123" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F123" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G123" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="H123" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="I123" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="J123" t="s">
-        <v>1128</v>
+        <v>1133</v>
       </c>
       <c r="K123" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -8608,34 +8623,34 @@
         <v>133</v>
       </c>
       <c r="B124" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C124" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D124" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E124" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F124" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="G124" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="H124" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="I124" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="J124" t="s">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="K124" t="s">
-        <v>1278</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -8643,34 +8658,34 @@
         <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C125" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D125" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E125" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="F125" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="G125" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="H125" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="I125" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="J125" t="s">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="K125" t="s">
-        <v>1279</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -8684,28 +8699,28 @@
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E126" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F126" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="G126" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="H126" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="I126" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="J126" t="s">
-        <v>1131</v>
+        <v>1136</v>
       </c>
       <c r="K126" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -8722,25 +8737,25 @@
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F127" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="G127" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="H127" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="I127" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="J127" t="s">
-        <v>1132</v>
+        <v>1137</v>
       </c>
       <c r="K127" t="s">
-        <v>1281</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -8748,34 +8763,34 @@
         <v>137</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C128" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D128" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E128" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F128" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="G128" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="H128" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="I128" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="J128" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="K128" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -8786,31 +8801,31 @@
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D129" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E129" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F129" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G129" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="H129" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="I129" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="J129" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="K129" t="s">
-        <v>1283</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -8827,25 +8842,25 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F130" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="G130" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="H130" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="I130" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="J130" t="s">
-        <v>1135</v>
+        <v>1140</v>
       </c>
       <c r="K130" t="s">
-        <v>1284</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -8871,16 +8886,16 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="I131" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="J131" t="s">
-        <v>1136</v>
+        <v>1141</v>
       </c>
       <c r="K131" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -8888,34 +8903,34 @@
         <v>141</v>
       </c>
       <c r="B132" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C132" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D132" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E132" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F132" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="G132" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="H132" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="I132" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="J132" t="s">
-        <v>1137</v>
+        <v>1142</v>
       </c>
       <c r="K132" t="s">
-        <v>1286</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -8944,13 +8959,13 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="J133" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="K133" t="s">
-        <v>1287</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -8967,25 +8982,25 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F134" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="G134" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="H134" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="I134" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="J134" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="K134" t="s">
-        <v>1288</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -9002,25 +9017,25 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F135" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="G135" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="H135" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="I135" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="J135" t="s">
-        <v>1140</v>
+        <v>1145</v>
       </c>
       <c r="K135" t="s">
-        <v>1289</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -9031,31 +9046,31 @@
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D136" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E136" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F136" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="G136" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="H136" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="I136" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="J136" t="s">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="K136" t="s">
-        <v>1290</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -9063,34 +9078,34 @@
         <v>146</v>
       </c>
       <c r="B137" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C137" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D137" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E137" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F137" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="G137" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="H137" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="I137" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="J137" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="K137" t="s">
-        <v>1291</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -9098,34 +9113,34 @@
         <v>147</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C138" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D138" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E138" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F138" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="G138" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="H138" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="I138" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="J138" t="s">
-        <v>1143</v>
+        <v>1148</v>
       </c>
       <c r="K138" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -9157,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="K139" t="s">
-        <v>1293</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -9168,34 +9183,34 @@
         <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C140" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D140" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E140" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F140" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="G140" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="H140" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="I140" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="J140" t="s">
-        <v>1145</v>
+        <v>1150</v>
       </c>
       <c r="K140" t="s">
-        <v>1294</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -9203,34 +9218,34 @@
         <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C141" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D141" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="E141" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F141" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="G141" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="H141" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="I141" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="J141" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="K141" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -9238,34 +9253,34 @@
         <v>151</v>
       </c>
       <c r="B142" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C142" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D142" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E142" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F142" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="G142" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="H142" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="I142" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="J142" t="s">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="K142" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -9273,34 +9288,34 @@
         <v>152</v>
       </c>
       <c r="B143" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C143" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D143" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E143" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F143" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="G143" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="H143" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="I143" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="J143" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="K143" t="s">
-        <v>1297</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -9308,34 +9323,34 @@
         <v>153</v>
       </c>
       <c r="B144" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C144" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D144" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E144" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F144" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="G144" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="H144" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="I144" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="J144" t="s">
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="K144" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -9343,34 +9358,34 @@
         <v>154</v>
       </c>
       <c r="B145" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C145" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D145" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E145" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F145" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="G145" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="H145" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="I145" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="J145" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="K145" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -9378,34 +9393,34 @@
         <v>155</v>
       </c>
       <c r="B146" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C146" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D146" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E146" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F146" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="G146" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="H146" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="I146" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="J146" t="s">
-        <v>1151</v>
+        <v>1156</v>
       </c>
       <c r="K146" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -9422,25 +9437,25 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F147" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="G147" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="H147" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="I147" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="J147" t="s">
-        <v>1152</v>
+        <v>1157</v>
       </c>
       <c r="K147" t="s">
-        <v>1301</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -9448,34 +9463,34 @@
         <v>157</v>
       </c>
       <c r="B148" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C148" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D148" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="E148" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F148" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="G148" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="H148" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="I148" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="J148" t="s">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="K148" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -9483,34 +9498,34 @@
         <v>158</v>
       </c>
       <c r="B149" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C149" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D149" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E149" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F149" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="G149" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="H149" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="I149" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="J149" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="K149" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -9536,16 +9551,16 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="I150" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="J150" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="K150" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -9553,34 +9568,34 @@
         <v>160</v>
       </c>
       <c r="B151" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C151" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D151" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E151" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F151" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="G151" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="H151" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="I151" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="J151" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="K151" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -9588,34 +9603,34 @@
         <v>161</v>
       </c>
       <c r="B152" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C152" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D152" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="G152" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="H152" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="I152" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="J152" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="K152" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
     </row>
   </sheetData>
